--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3041" uniqueCount="484">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T19:55:11+00:00</t>
+    <t>2024-09-18T10:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Observation</t>
+    <t>http://idg-rlp.de/fhir/tumorkonferenzen/StructureDefinition/MinimalObservation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -576,6 +576,9 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
+    <t>final</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -648,6 +651,14 @@
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://idg-rlp.de/fhir/tumorkonferenzen/CodeSystem/CustomCodes"/&gt;
+    &lt;code value="tumorBoardAnmeldung"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>example</t>
@@ -1477,6 +1488,14 @@
     <t>Observation.component:terminwunsch.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://idg-rlp.de/fhir/tumorkonferenzen/CodeSystem/CustomCodes"/&gt;
+    &lt;code value="terminwunsch"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:terminwunsch.value[x]</t>
   </si>
   <si>
@@ -1505,6 +1524,14 @@
   </si>
   <si>
     <t>Observation.component:zweitmeinung.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://idg-rlp.de/fhir/tumorkonferenzen/CodeSystem/CustomCodes"/&gt;
+    &lt;code value="zweitmeinung"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:zweitmeinung.value[x]</t>
@@ -3509,7 +3536,7 @@
         <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>19</v>
+        <v>179</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>19</v>
@@ -3524,13 +3551,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3563,19 +3590,19 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>19</v>
@@ -3583,10 +3610,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3609,19 +3636,19 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3649,10 +3676,10 @@
         <v>114</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>19</v>
@@ -3670,7 +3697,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3694,10 +3721,10 @@
         <v>19</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>19</v>
@@ -3705,14 +3732,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3722,7 +3749,7 @@
         <v>90</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>19</v>
@@ -3731,19 +3758,19 @@
         <v>91</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3753,7 +3780,7 @@
         <v>19</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>19</v>
@@ -3768,13 +3795,13 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>19</v>
@@ -3792,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>90</v>
@@ -3807,30 +3834,30 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3844,7 +3871,7 @@
         <v>90</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>19</v>
@@ -3853,19 +3880,19 @@
         <v>91</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>19</v>
@@ -3914,7 +3941,7 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3929,19 +3956,19 @@
         <v>102</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>19</v>
@@ -3949,10 +3976,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3975,16 +4002,16 @@
         <v>91</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4034,7 +4061,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4055,13 +4082,13 @@
         <v>19</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>19</v>
@@ -4069,14 +4096,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4095,19 +4122,19 @@
         <v>91</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4156,7 +4183,7 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4171,19 +4198,19 @@
         <v>102</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>19</v>
@@ -4191,14 +4218,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4217,19 +4244,19 @@
         <v>91</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4278,7 +4305,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4293,19 +4320,19 @@
         <v>102</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>19</v>
@@ -4313,10 +4340,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4339,16 +4366,16 @@
         <v>91</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4398,7 +4425,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4419,13 +4446,13 @@
         <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>19</v>
@@ -4433,10 +4460,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4459,17 +4486,17 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4518,7 +4545,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4533,19 +4560,19 @@
         <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>19</v>
@@ -4553,10 +4580,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4579,19 +4606,19 @@
         <v>91</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4640,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4649,7 +4676,7 @@
         <v>90</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>102</v>
@@ -4658,27 +4685,27 @@
         <v>19</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4701,19 +4728,19 @@
         <v>19</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4738,13 +4765,13 @@
         <v>19</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>19</v>
@@ -4762,7 +4789,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4771,7 +4798,7 @@
         <v>90</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>102</v>
@@ -4786,7 +4813,7 @@
         <v>133</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>19</v>
@@ -4797,14 +4824,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4823,19 +4850,19 @@
         <v>19</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>19</v>
@@ -4860,13 +4887,13 @@
         <v>19</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>19</v>
@@ -4884,7 +4911,7 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4902,27 +4929,27 @@
         <v>19</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4945,19 +4972,19 @@
         <v>19</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -5006,7 +5033,7 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5027,10 +5054,10 @@
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -5041,10 +5068,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5067,16 +5094,16 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5102,13 +5129,13 @@
         <v>19</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>19</v>
@@ -5126,7 +5153,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5144,27 +5171,27 @@
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5187,19 +5214,19 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5224,13 +5251,13 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>19</v>
@@ -5248,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5269,10 +5296,10 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5283,10 +5310,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5309,16 +5336,16 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5368,7 +5395,7 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5386,27 +5413,27 @@
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5429,16 +5456,16 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5488,7 +5515,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5506,27 +5533,27 @@
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5549,19 +5576,19 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5610,7 +5637,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5622,7 +5649,7 @@
         <v>19</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
@@ -5631,10 +5658,10 @@
         <v>19</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
@@ -5645,10 +5672,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5671,13 +5698,13 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5728,7 +5755,7 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5752,7 +5779,7 @@
         <v>19</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -5763,10 +5790,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5795,7 +5822,7 @@
         <v>137</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>139</v>
@@ -5848,7 +5875,7 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5872,7 +5899,7 @@
         <v>19</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
@@ -5883,14 +5910,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5912,10 +5939,10 @@
         <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>139</v>
@@ -5970,7 +5997,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -6005,10 +6032,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6031,13 +6058,13 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6088,7 +6115,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6097,7 +6124,7 @@
         <v>90</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>102</v>
@@ -6109,10 +6136,10 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6123,10 +6150,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6149,13 +6176,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6206,7 +6233,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6215,7 +6242,7 @@
         <v>90</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>102</v>
@@ -6227,10 +6254,10 @@
         <v>19</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -6241,10 +6268,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6267,19 +6294,19 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>19</v>
@@ -6307,10 +6334,10 @@
         <v>114</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>19</v>
@@ -6328,7 +6355,7 @@
         <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6346,13 +6373,13 @@
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6363,10 +6390,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6389,19 +6416,19 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6426,13 +6453,13 @@
         <v>19</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>19</v>
@@ -6450,7 +6477,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6468,13 +6495,13 @@
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6485,10 +6512,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6511,17 +6538,17 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6570,7 +6597,7 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6594,7 +6621,7 @@
         <v>19</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6605,10 +6632,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6631,13 +6658,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6688,7 +6715,7 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6709,10 +6736,10 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6723,10 +6750,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6749,16 +6776,16 @@
         <v>91</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6808,7 +6835,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6829,10 +6856,10 @@
         <v>19</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6843,10 +6870,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6869,16 +6896,16 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6928,7 +6955,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6949,10 +6976,10 @@
         <v>19</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>19</v>
@@ -6963,10 +6990,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6974,7 +7001,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6989,19 +7016,19 @@
         <v>91</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -7038,17 +7065,17 @@
         <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7069,10 +7096,10 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -7083,10 +7110,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7109,13 +7136,13 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7166,7 +7193,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7190,7 +7217,7 @@
         <v>19</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7201,10 +7228,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7233,7 +7260,7 @@
         <v>137</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>139</v>
@@ -7286,7 +7313,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7310,7 +7337,7 @@
         <v>19</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7321,14 +7348,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7350,10 +7377,10 @@
         <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>139</v>
@@ -7408,7 +7435,7 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7443,10 +7470,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7469,19 +7496,19 @@
         <v>91</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7506,13 +7533,13 @@
         <v>19</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>19</v>
@@ -7530,7 +7557,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>90</v>
@@ -7548,16 +7575,16 @@
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>19</v>
@@ -7565,10 +7592,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7591,19 +7618,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7652,7 +7679,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7670,27 +7697,27 @@
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7713,19 +7740,19 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>19</v>
@@ -7750,13 +7777,13 @@
         <v>19</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>19</v>
@@ -7774,7 +7801,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7783,7 +7810,7 @@
         <v>90</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>102</v>
@@ -7798,7 +7825,7 @@
         <v>133</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -7809,14 +7836,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7835,19 +7862,19 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7872,13 +7899,13 @@
         <v>19</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>19</v>
@@ -7896,7 +7923,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7914,27 +7941,27 @@
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7960,16 +7987,16 @@
         <v>80</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -8018,7 +8045,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8039,10 +8066,10 @@
         <v>19</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>19</v>
@@ -8053,13 +8080,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>19</v>
@@ -8081,19 +8108,19 @@
         <v>91</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8142,7 +8169,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8163,10 +8190,10 @@
         <v>19</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>19</v>
@@ -8177,10 +8204,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8203,13 +8230,13 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8260,7 +8287,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8284,7 +8311,7 @@
         <v>19</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8295,10 +8322,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8327,7 +8354,7 @@
         <v>137</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N54" t="s" s="2">
         <v>139</v>
@@ -8380,7 +8407,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8404,7 +8431,7 @@
         <v>19</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
@@ -8415,14 +8442,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8444,10 +8471,10 @@
         <v>136</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>139</v>
@@ -8502,7 +8529,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8537,10 +8564,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8563,19 +8590,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>19</v>
@@ -8585,7 +8612,7 @@
         <v>19</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>19</v>
@@ -8600,13 +8627,13 @@
         <v>19</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>19</v>
@@ -8624,7 +8651,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>90</v>
@@ -8642,16 +8669,16 @@
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>19</v>
@@ -8659,10 +8686,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8685,19 +8712,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8746,7 +8773,7 @@
         <v>19</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8764,27 +8791,27 @@
         <v>19</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8807,19 +8834,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8844,13 +8871,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8868,7 +8895,7 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8877,7 +8904,7 @@
         <v>90</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>102</v>
@@ -8892,7 +8919,7 @@
         <v>133</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>19</v>
@@ -8903,14 +8930,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8929,19 +8956,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8966,13 +8993,13 @@
         <v>19</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>19</v>
@@ -8990,7 +9017,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9008,27 +9035,27 @@
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9054,16 +9081,16 @@
         <v>80</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -9112,7 +9139,7 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9133,10 +9160,10 @@
         <v>19</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>19</v>
@@ -9147,13 +9174,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>19</v>
@@ -9175,19 +9202,19 @@
         <v>91</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>19</v>
@@ -9236,7 +9263,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9257,10 +9284,10 @@
         <v>19</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>19</v>
@@ -9271,10 +9298,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9297,13 +9324,13 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9354,7 +9381,7 @@
         <v>19</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9378,7 +9405,7 @@
         <v>19</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>19</v>
@@ -9389,10 +9416,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9421,7 +9448,7 @@
         <v>137</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N63" t="s" s="2">
         <v>139</v>
@@ -9474,7 +9501,7 @@
         <v>19</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9498,7 +9525,7 @@
         <v>19</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>19</v>
@@ -9509,14 +9536,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9538,10 +9565,10 @@
         <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>139</v>
@@ -9596,7 +9623,7 @@
         <v>19</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9631,10 +9658,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9657,19 +9684,19 @@
         <v>91</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>19</v>
@@ -9679,7 +9706,7 @@
         <v>19</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>19</v>
@@ -9694,13 +9721,13 @@
         <v>19</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>19</v>
@@ -9718,7 +9745,7 @@
         <v>19</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>90</v>
@@ -9736,16 +9763,16 @@
         <v>19</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>19</v>
@@ -9753,10 +9780,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9779,19 +9806,19 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>19</v>
@@ -9840,7 +9867,7 @@
         <v>19</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9858,27 +9885,27 @@
         <v>19</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9901,19 +9928,19 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>19</v>
@@ -9938,13 +9965,13 @@
         <v>19</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>19</v>
@@ -9962,7 +9989,7 @@
         <v>19</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9971,7 +9998,7 @@
         <v>90</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>102</v>
@@ -9986,7 +10013,7 @@
         <v>133</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>19</v>
@@ -9997,14 +10024,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10023,19 +10050,19 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>19</v>
@@ -10060,13 +10087,13 @@
         <v>19</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>19</v>
@@ -10084,7 +10111,7 @@
         <v>19</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10102,27 +10129,27 @@
         <v>19</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10148,16 +10175,16 @@
         <v>80</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>19</v>
@@ -10206,7 +10233,7 @@
         <v>19</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10227,10 +10254,10 @@
         <v>19</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>19</v>
@@ -10241,13 +10268,13 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>19</v>
@@ -10269,19 +10296,19 @@
         <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>19</v>
@@ -10330,7 +10357,7 @@
         <v>19</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10351,10 +10378,10 @@
         <v>19</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>19</v>
@@ -10365,10 +10392,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10391,13 +10418,13 @@
         <v>19</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10448,7 +10475,7 @@
         <v>19</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10472,7 +10499,7 @@
         <v>19</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>19</v>
@@ -10483,10 +10510,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10515,7 +10542,7 @@
         <v>137</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N72" t="s" s="2">
         <v>139</v>
@@ -10568,7 +10595,7 @@
         <v>19</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10592,7 +10619,7 @@
         <v>19</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>19</v>
@@ -10603,14 +10630,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10632,10 +10659,10 @@
         <v>136</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="N73" t="s" s="2">
         <v>139</v>
@@ -10690,7 +10717,7 @@
         <v>19</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10725,10 +10752,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10751,19 +10778,19 @@
         <v>91</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>19</v>
@@ -10773,7 +10800,7 @@
         <v>19</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>19</v>
@@ -10788,13 +10815,13 @@
         <v>19</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>19</v>
@@ -10812,7 +10839,7 @@
         <v>19</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>90</v>
@@ -10830,16 +10857,16 @@
         <v>19</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>19</v>
@@ -10847,10 +10874,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10873,19 +10900,19 @@
         <v>91</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>19</v>
@@ -10910,11 +10937,11 @@
         <v>19</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>19</v>
@@ -10932,7 +10959,7 @@
         <v>19</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10950,27 +10977,27 @@
         <v>19</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10993,19 +11020,19 @@
         <v>19</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>19</v>
@@ -11030,13 +11057,13 @@
         <v>19</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>19</v>
@@ -11054,7 +11081,7 @@
         <v>19</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11063,7 +11090,7 @@
         <v>90</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>102</v>
@@ -11078,7 +11105,7 @@
         <v>133</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>19</v>
@@ -11089,14 +11116,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11115,19 +11142,19 @@
         <v>19</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>19</v>
@@ -11152,13 +11179,13 @@
         <v>19</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>19</v>
@@ -11176,7 +11203,7 @@
         <v>19</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11194,27 +11221,27 @@
         <v>19</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11240,16 +11267,16 @@
         <v>80</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>19</v>
@@ -11298,7 +11325,7 @@
         <v>19</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11319,10 +11346,10 @@
         <v>19</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>19</v>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T10:41:35+00:00</t>
+    <t>2024-09-18T11:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T11:11:15+00:00</t>
+    <t>2024-10-31T11:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1311,7 +1311,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:37+00:00</t>
+    <t>2024-10-31T11:09:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:09:58+00:00</t>
+    <t>2024-12-02T15:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:35:52+00:00</t>
+    <t>2025-02-09T15:43:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-tumor-board-anmeldung.xlsx
+++ b/StructureDefinition-tumor-board-anmeldung.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-09T15:43:55+00:00</t>
+    <t>2025-04-28T11:03:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
